--- a/de12/files/2班 服の系統 金子.xlsx
+++ b/de12/files/2班 服の系統 金子.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takep\mygit\xbp\de12\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66CDC2F-5F6D-4DB2-B1FA-86ACB2EA3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E297E777-BDA5-4B67-B77C-9BFBEE66FB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>カジュアル</t>
     <phoneticPr fontId="1"/>
@@ -47,160 +47,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トラッド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10代女</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>クール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストリート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>染めている女</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>オンナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20代女</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>染めてない女</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>オンナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30代女</t>
-    <rPh sb="2" eb="4">
-      <t>ダイオンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代女</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代女</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代女</t>
-    <rPh sb="2" eb="4">
-      <t>ダイオンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代女</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代男</t>
-    <rPh sb="2" eb="4">
-      <t>ダイオトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代男</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>染めている男</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30代男</t>
-    <rPh sb="2" eb="4">
-      <t>ダイオトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代男</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>染めてない男</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50代男</t>
-    <rPh sb="2" eb="4">
-      <t>ダイオトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代男</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明女</t>
+    <t>染めている計</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>染めてない計</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明男</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代男</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クール</t>
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -232,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,13 +188,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -542,237 +531,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="C2" s="1">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">SUM(B3:E3)</f>
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(B11,D11)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(C11,E11)</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:E11" si="1">SUM(C2:C10)</f>
+        <v>143</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F11" s="8">
+        <f>SUM(F2:F10)</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUM(B11:C11)</f>
+        <v>172</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <f>SUM(D11:E11)</f>
+        <v>203</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
